--- a/uml2es/excel/uml2es-excel-template.xlsx
+++ b/uml2es/excel/uml2es-excel-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhavey/Documents/mike/dev/mbo_modeling/fy18q3/marklogic/uml2es/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhavey/Documents/mike/dev/mbo_modeling/fy18q4/marklogic/uml2es/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16180"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>Mike Havey</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>SEM Property (predicate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range Index Type </t>
   </si>
   <si>
     <t>Cacluated By Concatenating The Following - linebreaks between</t>
@@ -280,6 +277,30 @@
   </si>
   <si>
     <t>See https://github.com/mhavey/marklogic/tree/master/uml2es/umlProfile</t>
+  </si>
+  <si>
+    <t>xyz,http://xyz.org#</t>
+  </si>
+  <si>
+    <t>Semantic Facts - s,P,O linebreaks between</t>
+  </si>
+  <si>
+    <t>SEM Prefixes P, U (linebreaks between)</t>
+  </si>
+  <si>
+    <t>Elem Range Idx (Y/N)</t>
+  </si>
+  <si>
+    <t>Path Range Idx (Y/N)</t>
+  </si>
+  <si>
+    <t>Word Lex (Y/N)</t>
+  </si>
+  <si>
+    <t>PII (Y/N)</t>
+  </si>
+  <si>
+    <t>SEM Qualified Object s, P, O (linebreaks between)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +358,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +401,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -417,12 +444,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -467,6 +505,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,9 +518,9 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF00"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFCCCDFF"/>
-      <color rgb="FFFFFF00"/>
       <color rgb="FFFFF799"/>
       <color rgb="FFC5F08C"/>
       <color rgb="FF000034"/>
@@ -818,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -829,27 +870,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +901,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -880,7 +921,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -888,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -896,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -904,7 +945,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -912,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -920,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.2">
@@ -928,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.2">
@@ -936,16 +977,27 @@
         <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -962,10 +1014,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -975,19 +1027,24 @@
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -995,7 +1052,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1003,7 +1060,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1029,239 +1086,257 @@
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="19" t="s">
+      <c r="V20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="W20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="N22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="U22" t="s">
         <v>57</v>
       </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" t="s">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C20:C28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21:C29"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape"/>
